--- a/src/templateLogs.xlsx
+++ b/src/templateLogs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764D2393-300D-FF46-982B-19C27654D6C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738C6377-1A99-CF4A-930B-ABC61A3374D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
+    <workbookView xWindow="39540" yWindow="880" windowWidth="33600" windowHeight="20540" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -586,10 +586,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="e">
-        <f>DATEVALUE(MIDB(J2,1,10))+TIMEVALUE(MIDB(J2,12,8))+TIME(9,0,0)</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="J2" s="3"/>
     </row>
   </sheetData>
